--- a/expimp/work.xlsx
+++ b/expimp/work.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="work" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,15 +444,20 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>work_base</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>base_unit</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>work_group</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>uuid</t>
         </is>
@@ -461,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Работа 1</t>
+          <t>Разметка на местности</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -471,108 +476,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5000.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1000.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6a60fb0b-6216-4615-a56f-fed640ec0974</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09c8a855-e18d-4caf-9246-513342174102</t>
+          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1df16de3-2c32-4faa-bd31-1f50e295e2d0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Работа 2</t>
+          <t>Траншеи (котлован) под ленту (+отмостку)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6a60fb0b-6216-4615-a56f-fed640ec0974</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>53ad67fa-a1ee-44f2-9ae0-c91846a8dbb6</t>
+          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>dc407156-fc91-4d55-9d8e-df5d16fe3b09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Работа 3</t>
+          <t>Раскладка геотекстиля</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>668f1945-4118-4db1-a35e-9aad87325682</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5c0e0928-f7b0-4992-a3d1-cbff89b1f94b</t>
+          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>116dc867-95a6-40f9-b29c-618ac6ab8667</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Работа 4</t>
+          <t>Ввод электричества</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,179 +602,120 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>668f1945-4118-4db1-a35e-9aad87325682</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6d152818-abe9-41c8-9895-ff5135725427</t>
+          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>85990564-8987-4c7d-b8d7-f432f40a6f2e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Работа 5</t>
+          <t>Опалубка</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>350.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ebf4b2a0-7f6d-4adc-a72d-b5492ed6fda3</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>e0adfae8-f820-47ae-8a72-37fa26c0e1bf</t>
+          <t>3530bdee-dea5-4ec8-8738-84e51e5f597a</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Работа 6</t>
+          <t>Сборка и монтаж стен первого этажа (плита)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ebf4b2a0-7f6d-4adc-a72d-b5492ed6fda3</t>
+          <t>ab9efe9f-81a7-4e29-8acf-4196a6249cd1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2d6ff94e-154d-4ece-a8e3-af2b6865a1c8</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Работа 7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>e25df6c3-a480-4cfa-966c-d6e695645efd</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>d25f7a7b-168f-4c78-a32a-5e84f61c928f</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Работа 8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90c7254f-bf61-4ac6-85c5-864a26ded503</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>e25df6c3-a480-4cfa-966c-d6e695645efd</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>bb21dda7-7227-4fa3-80dc-7f94261e8eee</t>
+          <t>45d716bb-50e9-4673-8475-42b9ab895172</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6fe0efb4-126e-49fb-8025-479f08b9e809</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/expimp/work.xlsx
+++ b/expimp/work.xlsx
@@ -592,27 +592,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ввод электричества</t>
+          <t>Опалубка</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2000.0</t>
+          <t>350.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>800.0</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -622,34 +622,34 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
+          <t>3530bdee-dea5-4ec8-8738-84e51e5f597a</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>85990564-8987-4c7d-b8d7-f432f40a6f2e</t>
+          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Опалубка</t>
+          <t>Сборка и монтаж стен первого этажа (плита)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>350.0</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>3000.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -659,59 +659,59 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
+          <t>ab9efe9f-81a7-4e29-8acf-4196a6249cd1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3530bdee-dea5-4ec8-8738-84e51e5f597a</t>
+          <t>45d716bb-50e9-4673-8475-42b9ab895172</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8d758522-a4b7-4154-bc0f-1d9fbafccb2a</t>
+          <t>6fe0efb4-126e-49fb-8025-479f08b9e809</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сборка и монтаж стен первого этажа (плита)</t>
+          <t>Ввод электричества</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10000.0</t>
+          <t>2000.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3000.0</t>
+          <t>800.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ab9efe9f-81a7-4e29-8acf-4196a6249cd1</t>
+          <t>5e496a2f-0015-4328-9913-9e4c7e40239f</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45d716bb-50e9-4673-8475-42b9ab895172</t>
+          <t>83f21344-5b41-4b9a-9cce-11c6c998f276</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6fe0efb4-126e-49fb-8025-479f08b9e809</t>
+          <t>85990564-8987-4c7d-b8d7-f432f40a6f2e</t>
         </is>
       </c>
     </row>
